--- a/config_3.23/game_activity_config.xlsx
+++ b/config_3.23/game_activity_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="135">
   <si>
     <t>title|标题</t>
   </si>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>tag|标签 (限时limit、最新new、火热hot、无normal)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>prefab</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -390,10 +386,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>元宵福袋</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_034_ldfd","panel"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -568,6 +560,18 @@
   </si>
   <si>
     <t>桃花排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运福袋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag|标签 (限时limit、最新new、火热hot、无normal、recom推荐)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>recom</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -698,7 +702,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,15 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -777,14 +772,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1066,16 +1058,16 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="13" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.125" style="4" bestFit="1" customWidth="1"/>
@@ -1086,7 +1078,7 @@
     <col min="10" max="10" width="16.875" style="4" customWidth="1"/>
     <col min="11" max="11" width="30.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="86.75" style="4" customWidth="1"/>
-    <col min="13" max="13" width="43.75" style="12" customWidth="1"/>
+    <col min="13" max="13" width="43.75" style="4" customWidth="1"/>
     <col min="14" max="14" width="25.75" style="4" customWidth="1"/>
     <col min="15" max="15" width="14.25" style="4" customWidth="1"/>
     <col min="16" max="16384" width="9" style="4"/>
@@ -1097,27 +1089,27 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -1129,24 +1121,24 @@
       <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="24" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1168,9 +1160,8 @@
         <v>7</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="11"/>
+        <v>21</v>
+      </c>
       <c r="N2" s="3">
         <v>0</v>
       </c>
@@ -1182,14 +1173,14 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="8">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3">
         <v>3</v>
@@ -1198,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="3">
         <v>-1</v>
@@ -1207,33 +1198,33 @@
         <v>-1</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="8">
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="3">
@@ -1242,8 +1233,8 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>53</v>
+      <c r="H4" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="I4" s="3">
         <v>-1</v>
@@ -1252,13 +1243,13 @@
         <v>-1</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -1271,14 +1262,14 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
@@ -1288,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3">
         <v>1585611000</v>
@@ -1297,33 +1288,33 @@
         <v>-1</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N5" s="3">
         <v>1</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="12">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3">
         <v>-10</v>
@@ -1332,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="3">
         <v>1585611000</v>
@@ -1341,33 +1332,33 @@
         <v>-1</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N6" s="3">
         <v>1</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="8">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3">
         <v>-10</v>
@@ -1376,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="3">
         <v>1585611000</v>
@@ -1385,33 +1376,33 @@
         <v>-1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7" s="3">
         <v>1</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="8">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="3">
         <v>-9</v>
@@ -1426,33 +1417,33 @@
         <v>-1</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="8">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="3">
         <v>-10</v>
@@ -1461,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="3">
         <v>1585611000</v>
@@ -1470,33 +1461,33 @@
         <v>-1</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N9" s="3">
         <v>1</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3">
         <v>-8</v>
@@ -1505,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="3">
         <v>-1</v>
@@ -1514,36 +1505,36 @@
         <v>-1</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N10" s="3">
         <v>1</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>21</v>
+      <c r="B11" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>85</v>
+      <c r="D11" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1551,134 +1542,134 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20">
+      <c r="H11" s="16"/>
+      <c r="I11" s="17">
         <v>1614643200</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="17">
         <v>1615219199</v>
       </c>
-      <c r="K11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="19" t="s">
+      <c r="K11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="12">
+        <v>11</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1615852800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1616428799</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="27">
-        <v>11</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="21">
-        <v>3</v>
-      </c>
-      <c r="G12" s="21">
-        <v>1</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="I12" s="21">
-        <v>1615852800</v>
-      </c>
-      <c r="J12" s="21">
-        <v>1616428799</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="21">
-        <v>1</v>
-      </c>
-      <c r="O12" s="24" t="s">
-        <v>81</v>
+      <c r="M12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="12">
         <v>12</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="19"/>
+      <c r="D13" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="16"/>
       <c r="F13" s="3">
         <v>4</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20">
+      <c r="H13" s="16"/>
+      <c r="I13" s="17">
         <v>1612828800</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="17">
         <v>1613404799</v>
       </c>
-      <c r="K13" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="19" t="s">
+      <c r="K13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="19" t="s">
-        <v>56</v>
-      </c>
       <c r="N13" s="3">
         <v>1</v>
       </c>
-      <c r="O13" s="19" t="s">
-        <v>59</v>
+      <c r="O13" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>21</v>
+      <c r="B14" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="8">
         <v>13</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="16" t="s">
         <v>98</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
@@ -1686,46 +1677,46 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="20">
+      <c r="H14" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="17">
         <v>1614643200</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="17">
         <v>1615219199</v>
       </c>
-      <c r="K14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>94</v>
+      <c r="K14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="N14" s="3">
         <v>1</v>
       </c>
-      <c r="O14" s="19" t="s">
-        <v>58</v>
+      <c r="O14" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>21</v>
+      <c r="B15" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="8">
         <v>14</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>97</v>
+      <c r="D15" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="F15" s="3">
         <v>3</v>
@@ -1733,46 +1724,46 @@
       <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="20">
+      <c r="H15" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="17">
         <v>1614643200</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="17">
         <v>1615219199</v>
       </c>
-      <c r="K15" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>95</v>
+      <c r="K15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="N15" s="3">
         <v>1</v>
       </c>
-      <c r="O15" s="19" t="s">
-        <v>26</v>
+      <c r="O15" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>21</v>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="8">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="3">
         <v>3</v>
@@ -1781,130 +1772,130 @@
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="20">
+        <v>105</v>
+      </c>
+      <c r="I16" s="17">
         <v>1614643200</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="17">
         <v>1615219199</v>
       </c>
-      <c r="K16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>65</v>
+      <c r="K16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="N16" s="3">
         <v>1</v>
       </c>
-      <c r="O16" s="19" t="s">
-        <v>81</v>
+      <c r="O16" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>21</v>
+      <c r="B17" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="8">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="J17" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="20">
-        <v>1612828800</v>
-      </c>
-      <c r="J17" s="20">
-        <v>1613404799</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="19" t="s">
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N17" s="3">
-        <v>1</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="21">
-        <v>17</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="23">
-        <v>17</v>
-      </c>
-      <c r="D18" s="21" t="s">
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1615852800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1616428799</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="21">
-        <v>3</v>
-      </c>
-      <c r="G18" s="21">
-        <v>1</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="21">
-        <v>1615852800</v>
-      </c>
-      <c r="J18" s="21">
-        <v>1616428799</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="N18" s="21">
-        <v>1</v>
-      </c>
-      <c r="O18" s="24" t="s">
-        <v>81</v>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="8">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -1913,42 +1904,42 @@
         <v>1</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="20">
+        <v>73</v>
+      </c>
+      <c r="I19" s="17">
         <v>1612828800</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="17">
         <v>1613404799</v>
       </c>
-      <c r="K19" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>78</v>
+      <c r="K19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
       </c>
-      <c r="O19" s="19" t="s">
-        <v>20</v>
+      <c r="O19" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>21</v>
+      <c r="B20" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C20" s="8">
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1962,34 +1953,34 @@
       <c r="J20" s="3">
         <v>1614009599</v>
       </c>
-      <c r="K20" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>93</v>
+      <c r="K20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="N20" s="3">
         <v>1</v>
       </c>
-      <c r="O20" s="19" t="s">
-        <v>20</v>
+      <c r="O20" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>21</v>
+      <c r="B21" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C21" s="8">
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -2003,34 +1994,34 @@
       <c r="J21" s="3">
         <v>1614009599</v>
       </c>
-      <c r="K21" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>61</v>
+      <c r="K21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="N21" s="3">
         <v>1</v>
       </c>
-      <c r="O21" s="19" t="s">
-        <v>20</v>
+      <c r="O21" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>21</v>
+      <c r="B22" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="8">
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F22" s="3">
         <v>-20</v>
@@ -2039,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I22" s="3">
         <v>1613433600</v>
@@ -2047,82 +2038,82 @@
       <c r="J22" s="3">
         <v>1614009599</v>
       </c>
-      <c r="K22" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>92</v>
+      <c r="K22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="21">
+      <c r="C23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="23">
-        <v>22</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="21">
+      <c r="D23" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="21">
-        <v>1</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="21">
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="3">
         <v>1615852800</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="3">
         <v>1616428799</v>
       </c>
-      <c r="K23" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="N23" s="21">
-        <v>1</v>
-      </c>
-      <c r="O23" s="24" t="s">
-        <v>20</v>
+      <c r="K23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>21</v>
+      <c r="B24" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C24" s="8">
         <v>23</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>63</v>
+      <c r="D24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="F24" s="3">
         <v>3</v>
@@ -2130,178 +2121,178 @@
       <c r="G24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="17"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="3">
         <v>1614038400</v>
       </c>
       <c r="J24" s="3">
         <v>1614614399</v>
       </c>
-      <c r="K24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>61</v>
+      <c r="K24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="N24" s="3">
         <v>1</v>
       </c>
-      <c r="O24" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="O24" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="8">
+      <c r="B25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="20">
         <v>24</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="18">
+        <v>1616457600</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1617033599</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N25" s="18">
+        <v>1</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="8">
+        <v>25</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="3">
+      <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="3">
-        <v>1614038400</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1614614399</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M25" s="19" t="s">
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1615852800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1616428799</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="8">
+        <v>26</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N25" s="3">
-        <v>1</v>
-      </c>
-      <c r="O25" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
-        <v>25</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="23">
-        <v>25</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="21">
+      <c r="F27" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="21">
-        <v>1</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" s="21">
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="3">
         <v>1615852800</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J27" s="3">
         <v>1616428799</v>
       </c>
-      <c r="K26" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="N26" s="21">
-        <v>1</v>
-      </c>
-      <c r="O26" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
-        <v>26</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="23">
-        <v>26</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="21">
-        <v>4</v>
-      </c>
-      <c r="G27" s="21">
-        <v>1</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="21">
-        <v>1615852800</v>
-      </c>
-      <c r="J27" s="21">
-        <v>1616428799</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="M27" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="N27" s="21">
-        <v>1</v>
-      </c>
-      <c r="O27" s="24" t="s">
-        <v>20</v>
+      <c r="K27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>21</v>
+      <c r="B28" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C28" s="8">
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="3">
         <v>2</v>
@@ -2315,249 +2306,249 @@
       <c r="J28" s="3">
         <v>1614614399</v>
       </c>
-      <c r="K28" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" s="19" t="s">
+      <c r="K28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="8">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-20</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1614643200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="8">
+        <v>29</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1615852800</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1616428799</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="M28" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="N28" s="3">
-        <v>1</v>
-      </c>
-      <c r="O28" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="5">
-        <v>28</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="4">
-        <v>-20</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>1614643200</v>
-      </c>
-      <c r="J29" s="4">
-        <v>-1</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M29" s="12" t="s">
+      <c r="M30" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="8">
+        <v>30</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1615852800</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1616428799</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="8">
+        <v>29</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="N29" s="4">
-        <v>1</v>
-      </c>
-      <c r="O29" s="4" t="s">
+      <c r="E32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1615852800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1616428799</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="8">
+        <v>30</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
-        <v>29</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="23">
-        <v>29</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="21">
-        <v>1</v>
-      </c>
-      <c r="G30" s="21">
-        <v>1</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="I30" s="21">
+      <c r="E33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="3">
         <v>1615852800</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J33" s="3">
         <v>1616428799</v>
       </c>
-      <c r="K30" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="M30" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="N30" s="21">
-        <v>1</v>
-      </c>
-      <c r="O30" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="21">
-        <v>30</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="23">
-        <v>30</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="21">
-        <v>1</v>
-      </c>
-      <c r="G31" s="21">
-        <v>1</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="I31" s="21">
-        <v>1615852800</v>
-      </c>
-      <c r="J31" s="21">
-        <v>1616428799</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="M31" s="24" t="s">
+      <c r="K33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="N31" s="21">
-        <v>1</v>
-      </c>
-      <c r="O31" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
-        <v>31</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="23">
-        <v>29</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="21">
-        <v>1</v>
-      </c>
-      <c r="G32" s="21">
-        <v>1</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="I32" s="21">
-        <v>1615852800</v>
-      </c>
-      <c r="J32" s="21">
-        <v>1616428799</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="M32" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="N32" s="21">
-        <v>1</v>
-      </c>
-      <c r="O32" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21">
-        <v>32</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="23">
-        <v>30</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" s="21">
-        <v>1</v>
-      </c>
-      <c r="G33" s="21">
-        <v>1</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="I33" s="21">
-        <v>1615852800</v>
-      </c>
-      <c r="J33" s="21">
-        <v>1616428799</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L33" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="M33" s="24" t="s">
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="N33" s="21">
-        <v>1</v>
-      </c>
-      <c r="O33" s="24" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2570,14 +2561,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2589,16 +2582,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2609,13 +2600,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2627,13 +2618,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.23/game_activity_config.xlsx
+++ b/config_3.23/game_activity_config.xlsx
@@ -1058,10 +1058,10 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2054,48 +2054,48 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+    <row r="23" spans="1:15" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="20">
         <v>22</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="18">
         <v>2</v>
       </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="3">
-        <v>1615852800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1616428799</v>
-      </c>
-      <c r="K23" s="16" t="s">
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="18">
+        <v>1616457600</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1617033599</v>
+      </c>
+      <c r="K23" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="16" t="s">
+      <c r="M23" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N23" s="3">
-        <v>1</v>
-      </c>
-      <c r="O23" s="16" t="s">
+      <c r="N23" s="18">
+        <v>1</v>
+      </c>
+      <c r="O23" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2561,16 +2561,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2582,14 +2580,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2600,13 +2600,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2618,13 +2618,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.23/game_activity_config.xlsx
+++ b/config_3.23/game_activity_config.xlsx
@@ -559,10 +559,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>桃花排行榜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>幸运福袋</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -572,6 +568,10 @@
   </si>
   <si>
     <t>recom</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星排行榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +702,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,6 +777,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1061,7 +1064,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1128,7 +1131,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1565,50 +1568,50 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:15" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="25">
         <v>11</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="18">
         <v>3</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="3">
-        <v>1615852800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1616428799</v>
-      </c>
-      <c r="K12" s="16" t="s">
+      <c r="I12" s="18">
+        <v>1616457600</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1617033599</v>
+      </c>
+      <c r="K12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="16" t="s">
+      <c r="N12" s="18">
+        <v>1</v>
+      </c>
+      <c r="O12" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1840,47 +1843,47 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+    <row r="18" spans="1:15" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="20">
         <v>17</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="18">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="3">
-        <v>1615852800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1616428799</v>
-      </c>
-      <c r="K18" s="16" t="s">
+      <c r="I18" s="18">
+        <v>1616457600</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1617033599</v>
+      </c>
+      <c r="K18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="16" t="s">
+      <c r="N18" s="18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2096,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -2155,7 +2158,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="18">
@@ -2184,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2561,14 +2564,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2580,16 +2585,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2600,13 +2603,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2618,13 +2621,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
